--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaar\Desktop\Artigo Fake News\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB11DC9D-125D-49B4-A0F6-3EB1FBC3A29C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123F79E-09A4-4D0F-B207-76BBE71A78A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="4215" windowWidth="21120" windowHeight="11385" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -118,6 +117,18 @@
   </si>
   <si>
     <t>Victor</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Resolvido (Adicionei trechos explicando todos os algoritmos e como serão utilizados no contexto do projeto)</t>
+  </si>
+  <si>
+    <t>Resolvido (quebrei a img em 2 partes)</t>
+  </si>
+  <si>
+    <t>Acho que resolvi</t>
   </si>
 </sst>
 </file>
@@ -220,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,16 +530,16 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.44140625" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -539,7 +550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -548,14 +559,14 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -566,28 +577,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -598,7 +621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,21 +632,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -634,7 +661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -645,21 +672,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -670,7 +705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -681,14 +716,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -699,7 +738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -710,7 +749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -721,63 +760,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
   </sheetData>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaar\Desktop\Artigo Fake News\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123F79E-09A4-4D0F-B207-76BBE71A78A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B92EE7-2B4C-4D50-BA45-001D1F5BFB09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Responsável</t>
   </si>
   <si>
-    <t>A ser discutido</t>
-  </si>
-  <si>
     <t>Resolvido</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>Acho que resolvi</t>
+  </si>
+  <si>
+    <t>Não será mexida</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -530,16 +533,16 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.44140625" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -550,277 +553,285 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
   </sheetData>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaar\Desktop\Artigo Fake News\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B92EE7-2B4C-4D50-BA45-001D1F5BFB09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74E3919-0396-4D31-A286-B25B6DFA1B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -132,6 +132,28 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>A equação (2) está incorreta</t>
+  </si>
+  <si>
+    <t>A legenda da Figura 4 contradiz o que há no texto.</t>
+  </si>
+  <si>
+    <t>A Tabela 4 não existe</t>
+  </si>
+  <si>
+    <t>Na hipótese H0 o que são resultados insuficientes?</t>
+  </si>
+  <si>
+    <t>A Tabela 1 não é citada no texto!</t>
+  </si>
+  <si>
+    <t>Corrigir expressões estranhas/Typos: 
+  - notçias
+  - por etapas por um conjunto de etapas
+  - De acordo com a Figura. 3. É possível notar
+  - e, além facilitar a</t>
   </si>
 </sst>
 </file>
@@ -234,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,17 +554,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="64.44140625" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,7 +584,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -573,7 +595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -584,7 +606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -595,7 +617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -606,7 +628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -628,7 +650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -639,7 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -650,14 +672,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -668,7 +690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -679,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -690,7 +712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -701,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -712,7 +734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -723,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -734,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -745,7 +767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -756,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -767,7 +789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -778,7 +800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -789,49 +811,81 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
   </sheetData>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74E3919-0396-4D31-A286-B25B6DFA1B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A52367-A062-4C01-8DF7-CC46C36A97AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -154,6 +154,65 @@
   - por etapas por um conjunto de etapas
   - De acordo com a Figura. 3. É possível notar
   - e, além facilitar a</t>
+  </si>
+  <si>
+    <t>A Seção de Introdução está muito extensa, sem foco e não apresenta elementos fundamentais de uma introdução de artigo. Nela, não fica claro o problema exato que o artigo pretende resolver, como pretende resolver, como os resultados foram avaliados e quais são os resultados gerais</t>
+  </si>
+  <si>
+    <t>Além disto, no último parágrafo deveria haver um sumário das seções posteriores.</t>
+  </si>
+  <si>
+    <t>No geral, além de uma melhor estruturação do texto, o artigo precisa de uma revisão gramatical. Há muitas frases longas, uso incorreto de vírgulas e "emendas" ou "quebras" de frases que comprometem a compreensão do texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As conclusões da Seção 5 também são vagas, e não discutem potenciais ameaças a validade dos resultados. Por exemplo, quão dependentes os resultados são do dataset utilizado e das técnicas de limpeza, por exemplo? O texto diz que o artigo apresentou resultados contrários ao apresentado por Dias (2019) em virtude da limpeza dos dados, mas como isto está representado nos resultados? Quais métricas e cenários foram avaliados para que tal conclusão seja obtida? </t>
+  </si>
+  <si>
+    <t>O artigo necessita de uma revisão de português por algumas frases parecerem faltar a completude do raciocínio como por exemplo as seguintes frases:  
+Exemplo1: De acordo com Zhou et al (2020) e outras obras utilizadas como base para o projeto de Monteiro et al (2018) e Shu et al (2017), existem alguns atributos que fazem a ponte entre a exatidão dos modelos de detecção de notícias falsas, tais como: número de palavras, número de pontos, número de parágrafos etc.
+Exemplo 2:  Métodos probabilísticos bayesianos assumem que a probabilidade de um evento A, representado por uma variável alvo, como por exemplo, a classe falsa, dado um evento B, representado por valores de atributos de entrada [Freire e Goldschimidt 2019], por exemplo: as representações numéricas da notícia
+Exemplo 3: - repetição da palavra etapas -  Os dados passaram por etapas por um conjunto de etapas de pré-processamento (ver Figura 2), vetorização, treinamento nos algoritmos de classificação SVM e Naive Bayes (ver Figura 3) e avaliação final que incluíram o cálculo do F1 Score, curva ROC, acurácia e Área Sob a Curva (AUC).</t>
+  </si>
+  <si>
+    <t>Falta de complementos necessariamente baseadas notícias reais  faltando EM
+Na seção Trabalhos Correlatos não são apresentados de forma abrangente trabalhos que tenham buscado responder a mesma pergunta de pesquisa ou até semelhante, com outras técnicas ou maneiras diferentes. Há uma mistura de comparação com alguns trabalhos , mas também com uma parte conceitual. Isso faz com que esta seção esteja mais semelhante a um Referencial teórico do que Trabalhos correlatos.</t>
+  </si>
+  <si>
+    <t>Quanto aos dados utilizados para validação é importante que os autores expliquem se de fato TODAS as notícias veiculadas pelos sites contraponto.jor.br e conversaafiada.com.br/politica são falsas ou se isso é apenas senso comum.</t>
+  </si>
+  <si>
+    <t>Na seção Análise dos Dados, algums discussões são difíceis de acompanhar. Por exemplo  Durante a análise feita na base de treinamento, verificou-se que mais de 75% das notícias falsas têm menos de 218 caracteres de palavras, então notícias falsas tendem a ser mais curtas se comparadas com as não falsas e mais de 75% das notícias não falsas tem número de palavras menor que 1369 caracteres.- fica confuso entender, da forma como está escrito uma mensagem com 100 caracteres se encaixa tanto na explicação de notícias falsas quanto não falsas, pois 100 é menor que 218 e menor que 1369.</t>
+  </si>
+  <si>
+    <t>Figura 6: aumentar a figura para possibilitar a visualização dos dados dos eixos e legendas.</t>
+  </si>
+  <si>
+    <t>Do 5.o parágrafo da Seção 2 em diante poderia ser colocado em uma Seção de "Processamento de Linguagem Natural". Esse conteúdo não está relacionado aos "Trabalhos Correlados" e sim aos conceitos de PLN.</t>
+  </si>
+  <si>
+    <t>Na Seção 3.1, "foram mapeados dois sites que compartilham notícias falsas e dois sites considerados confiáveis...de acordo com a justificativa...". Qual é essa justificativa? Não ficou claro no texto.</t>
+  </si>
+  <si>
+    <t>No Resumo:
+- a versão em inglês diz que o propósito do trabalho é analisar se as notícias políticas são verdadeiras ou não e difere do resumo em português.
+- já no resumo talvez fosse necessário explicar melhor o que é "melhor" resultado.</t>
+  </si>
+  <si>
+    <t>Na Introdução
+- não é feita, claramente, uma menção ao propósito principal do trabalho que é a comparação dos dois algoritmos.
+- a Introdução não dá o suporte que o restante do texto precisa para chegar às conclusões esperadas.</t>
+  </si>
+  <si>
+    <t>Nos Trabalhos Correlatos
+- essa seção não trata de Trabalhos Correlatos, mas, de fundamentação da proposta.
+- há uma discussão sobre a representação das notícias falsas, mas, não se explica o porquê dessa discussão ser necessária.
+- há termos não explicados, tais como stop words
+- o parágrafo que inicia com a frase "O Naive Bayes é um classificador probabilístico que assume a independência entre os atributos dos dados [Harrison 2019]." não possui sentido.</t>
+  </si>
+  <si>
+    <t>Na Metodologia
+- não há claramente explicado o que é um resultado "melhor". Essa explicação já deveria ter sido apresentada nesse ponto.
+- como se chegou ao processo para o pré-processamento das notícias. Esse caminho é muito importante para que se compreenda o que dos trabalhos correlatos temos de adaptação/melhoria/inovação.</t>
   </si>
 </sst>
 </file>
@@ -220,11 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -552,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,328 +621,420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A52367-A062-4C01-8DF7-CC46C36A97AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8A3C85-CE32-447B-9897-E7826C0C1EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -213,6 +213,9 @@
     <t>Na Metodologia
 - não há claramente explicado o que é um resultado "melhor". Essa explicação já deveria ter sido apresentada nesse ponto.
 - como se chegou ao processo para o pré-processamento das notícias. Esse caminho é muito importante para que se compreenda o que dos trabalhos correlatos temos de adaptação/melhoria/inovação.</t>
+  </si>
+  <si>
+    <t>A tabela está no artigo</t>
   </si>
 </sst>
 </file>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -801,7 +804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -812,7 +815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -823,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -834,7 +837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -845,7 +848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -856,7 +859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -867,16 +870,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -887,51 +892,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -979,7 +991,9 @@
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C38" s="4" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1016,9 @@
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C41" s="4" t="s">
         <v>27</v>
       </c>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8A3C85-CE32-447B-9897-E7826C0C1EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB47C5-C35D-4489-8A60-442369ACB840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB47C5-C35D-4489-8A60-442369ACB840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A06555-638F-4A94-92E9-C7FD0E06E6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>A tabela está no artigo</t>
+  </si>
+  <si>
+    <t>Retirei o parágrafo</t>
+  </si>
+  <si>
+    <t>Adicionar a etapa de teste e validação no diagrama da Figura 3</t>
   </si>
 </sst>
 </file>
@@ -613,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +916,9 @@
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -950,44 +958,49 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -998,21 +1011,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -1023,33 +1036,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
   </sheetData>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A06555-638F-4A94-92E9-C7FD0E06E6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C812DBD-DE84-4D24-B7A3-052237DF5BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>A Tabela 3 esta confusa, pois os autores não forneceram a nomenclatura prévias dos algoritmos. Além disso, o que seria o algoritmo multinomial? Não deveria ser Naive Bayes como foi citado no começo do trabalho? Outrossim, só na Tabela 3 é que se percebe que os autores utilizam o algoritmo Gaussian NB o que deveria ser descrito na metodologia.</t>
-  </si>
-  <si>
-    <t>Nos experimentos não ficou claro a divisão de treinamento e teste. Os autores afirmaram que se utilizou o k-fold com k = 5. Isso significa que a base de dados será dividida na proporção 80/20, sendo que em cada fold testa-se um conjunto diferente de dados até alcançar os 100% (5 x 20% do dataset). Em seguida os autores indicam que o modelo foi validado com 761 exemplos (471 falsas + 290 não falsas), sendo que 761 exemplos são 18,2% do tamanho do dataset de treinamento. Isso deixa a seção de experimentação bastante duvidosa.</t>
   </si>
   <si>
     <t>Cuidado ao formar frases do tipo ?Como mostra a Tabela 3, o SVM teve a maior precisão em relação aos outros modelos, no entanto, o algoritmo Naive Bayes apresentou mais dificuldade de identificar e diferenciar as classes,..?, pois NB não está sendo contra ponto ao SVM que apresentou-se melhor em todas as métricas. O "no entanto" seria correto se o SVM tivesse melhores resultados em certas métricas e o NB melhore resultados em outras.</t>
@@ -617,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -645,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -654,10 +651,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -665,10 +662,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -676,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -687,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -709,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,10 +717,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -731,50 +728,54 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,10 +783,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,10 +794,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -804,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
@@ -815,32 +816,32 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -859,21 +860,21 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,10 +882,10 @@
         <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -892,124 +893,120 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1018,56 +1015,49 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+      <c r="A45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LauraDamacenoDeAlmei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C812DBD-DE84-4D24-B7A3-052237DF5BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF245B-BA95-48B5-AF57-89911B843A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E51FAD2F-C055-4487-886C-47A578C1E8B7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>Erros apontados</t>
   </si>
@@ -207,18 +207,28 @@
 - o parágrafo que inicia com a frase "O Naive Bayes é um classificador probabilístico que assume a independência entre os atributos dos dados [Harrison 2019]." não possui sentido.</t>
   </si>
   <si>
+    <t>A tabela está no artigo</t>
+  </si>
+  <si>
+    <t>Retirei o parágrafo</t>
+  </si>
+  <si>
+    <t>Adicionar a etapa de teste e validação no diagrama da Figura 3</t>
+  </si>
+  <si>
     <t>Na Metodologia
-- não há claramente explicado o que é um resultado "melhor". Essa explicação já deveria ter sido apresentada nesse ponto.
-- como se chegou ao processo para o pré-processamento das notícias. Esse caminho é muito importante para que se compreenda o que dos trabalhos correlatos temos de adaptação/melhoria/inovação.</t>
-  </si>
-  <si>
-    <t>A tabela está no artigo</t>
-  </si>
-  <si>
-    <t>Retirei o parágrafo</t>
-  </si>
-  <si>
-    <t>Adicionar a etapa de teste e validação no diagrama da Figura 3</t>
+- não há claramente explicado o que é um resultado "melhor". Essa explicação já deveria ter sido apresentada nesse ponto.</t>
+  </si>
+  <si>
+    <t>Na Metodologia- como se chegou ao processo para o pré-processamento das notícias. Esse caminho é muito importante para que se compreenda o que dos trabalhos correlatos temos de adaptação/melhoria/inovação.</t>
+  </si>
+  <si>
+    <t>acurárica abaixo de 50% (modelo não conseguiu acertar nem 50% dos dados),
+Erro I e II muito altos
+Precisão, recall e F1-Score abaixo de 50%. AUC e curva RoC menor que 50%</t>
+  </si>
+  <si>
+    <t>Definir melhor o que seria um desempenho ruim. (procurar referências)</t>
   </si>
 </sst>
 </file>
@@ -285,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -299,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,16 +627,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35F130-2E1E-45B8-A465-C306162D50AE}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64.44140625" customWidth="1"/>
     <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -917,8 +931,12 @@
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -987,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1040,24 +1058,46 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Erros a serem corrigidos.xlsx
+++ b/Erros a serem corrigidos.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaar\Desktop\Artigo Fake News\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98987464-731E-4F83-8D56-A26B276902CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,218 +34,251 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">Erros apontados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsável</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Abstract precisa de uma revisão.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não será mexida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A formatação entre parágrafos está estranha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolvido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">É preciso concatenar melhor as ideias no trabalho como um todo. Em vários parágrafos o assunto muda abruptamente de um para outro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15], [8], [2], etc não são sujeitos. A forma correta da escrita é ?apresentou excelentes resultados nas pesquisas de Monteiro et. Al. [15] e Naive Bayes, que...?. Alterar em todos os lugares onde isso ocorre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Já que não estão explicando os algoritmos SVM e NB, é necessário fornecer referências que permitam ao leitor ir atrás dessa informação. Porém, como o artigo tem 6 páginas, essa teoria poderia facilmente ser adicionada ao artigo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolvido (Adicionei trechos explicando todos os algoritmos e como serão utilizados no contexto do projeto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Figura 1 está muito pequena. É essencial torná-la legível.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não usar E em Figura. 2. pode-se...?, pois dá a impressão de que quem escreveu o trabalho não é fluente em língua portuguesa (pt-br).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O título das tabelas deve vir em cima das tabelas e não embaixo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Tabela 3 esta confusa, pois os autores não forneceram a nomenclatura prévias dos algoritmos. Além disso, o que seria o algoritmo multinomial? Não deveria ser Naive Bayes como foi citado no começo do trabalho? Outrossim, só na Tabela 3 é que se percebe que os autores utilizam o algoritmo Gaussian NB o que deveria ser descrito na metodologia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidado ao formar frases do tipo ?Como mostra a Tabela 3, o SVM teve a maior precisão em relação aos outros modelos, no entanto, o algoritmo Naive Bayes apresentou mais dificuldade de identificar e diferenciar as classes,..?, pois NB não está sendo contra ponto ao SVM que apresentou-se melhor em todas as métricas. O "no entanto" seria correto se o SVM tivesse melhores resultados em certas métricas e o NB melhore resultados em outras.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na introdução, o parágrafo 5 não ficou muito claro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qual o motivo da escolha do bag of words e do TF-IDF? Observação: TF-IDF (term frequencyinverse document frequency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acho que resolvi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+  <si>
+    <t>Erros apontados</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>O Abstract precisa de uma revisão.</t>
+  </si>
+  <si>
+    <t>Não será mexida</t>
+  </si>
+  <si>
+    <t>A formatação entre parágrafos está estranha.</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>É preciso concatenar melhor as ideias no trabalho como um todo. Em vários parágrafos o assunto muda abruptamente de um para outro.</t>
+  </si>
+  <si>
+    <t>[15], [8], [2], etc não são sujeitos. A forma correta da escrita é ?apresentou excelentes resultados nas pesquisas de Monteiro et. Al. [15] e Naive Bayes, que...?. Alterar em todos os lugares onde isso ocorre.</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Já que não estão explicando os algoritmos SVM e NB, é necessário fornecer referências que permitam ao leitor ir atrás dessa informação. Porém, como o artigo tem 6 páginas, essa teoria poderia facilmente ser adicionada ao artigo.</t>
+  </si>
+  <si>
+    <t>Resolvido (Adicionei trechos explicando todos os algoritmos e como serão utilizados no contexto do projeto)</t>
+  </si>
+  <si>
+    <t>A Figura 1 está muito pequena. É essencial torná-la legível.</t>
+  </si>
+  <si>
+    <t>Não usar E em Figura. 2. pode-se...?, pois dá a impressão de que quem escreveu o trabalho não é fluente em língua portuguesa (pt-br).</t>
+  </si>
+  <si>
+    <t>O título das tabelas deve vir em cima das tabelas e não embaixo.</t>
+  </si>
+  <si>
+    <t>A Tabela 3 esta confusa, pois os autores não forneceram a nomenclatura prévias dos algoritmos. Além disso, o que seria o algoritmo multinomial? Não deveria ser Naive Bayes como foi citado no começo do trabalho? Outrossim, só na Tabela 3 é que se percebe que os autores utilizam o algoritmo Gaussian NB o que deveria ser descrito na metodologia.</t>
+  </si>
+  <si>
+    <t>Cuidado ao formar frases do tipo ?Como mostra a Tabela 3, o SVM teve a maior precisão em relação aos outros modelos, no entanto, o algoritmo Naive Bayes apresentou mais dificuldade de identificar e diferenciar as classes,..?, pois NB não está sendo contra ponto ao SVM que apresentou-se melhor em todas as métricas. O "no entanto" seria correto se o SVM tivesse melhores resultados em certas métricas e o NB melhore resultados em outras.</t>
+  </si>
+  <si>
+    <t>Na introdução, o parágrafo 5 não ficou muito claro.</t>
+  </si>
+  <si>
+    <t>Qual o motivo da escolha do bag of words e do TF-IDF? Observação: TF-IDF (term frequencyinverse document frequency)</t>
+  </si>
+  <si>
+    <t>Acho que resolvi</t>
   </si>
   <si>
     <t xml:space="preserve">Recomendo adicionar referências no parágrafo 9 da seção 2.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Evitar uso de voz passiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palavras em inglês devem ser grifadas em itálico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem das referências poderiam ser após o aparecimento no texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O argumento sobre a OMS está muito longe do início do artigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto muito desencadeado entre os parágrafos. O autor tem uma enorme dificuldade em encadear o texto, se ele fizer isso o artigo teria uma outra apresentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artigo tem seção e não Capítulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figura da Metodologia está ilegível.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolvido (quebrei a img em 2 partes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Autor não utilizou das 8 páginas previstas na conferência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A equação (2) está incorreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A legenda da Figura 4 contradiz o que há no texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Tabela 4 não existe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tabela está no artigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Tabela 1 não é citada no texto!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na hipótese H0 o que são resultados insuficientes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrigir expressões estranhas/Typos: 
+    <t>Evitar uso de voz passiva</t>
+  </si>
+  <si>
+    <t>Palavras em inglês devem ser grifadas em itálico</t>
+  </si>
+  <si>
+    <t>Ordem das referências poderiam ser após o aparecimento no texto.</t>
+  </si>
+  <si>
+    <t>O argumento sobre a OMS está muito longe do início do artigo</t>
+  </si>
+  <si>
+    <t>Texto muito desencadeado entre os parágrafos. O autor tem uma enorme dificuldade em encadear o texto, se ele fizer isso o artigo teria uma outra apresentação</t>
+  </si>
+  <si>
+    <t>Artigo tem seção e não Capítulo</t>
+  </si>
+  <si>
+    <t>Figura da Metodologia está ilegível.</t>
+  </si>
+  <si>
+    <t>Resolvido (quebrei a img em 2 partes)</t>
+  </si>
+  <si>
+    <t>O Autor não utilizou das 8 páginas previstas na conferência</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A equação (2) está incorreta</t>
+  </si>
+  <si>
+    <t>A legenda da Figura 4 contradiz o que há no texto.</t>
+  </si>
+  <si>
+    <t>A Tabela 4 não existe</t>
+  </si>
+  <si>
+    <t>A tabela está no artigo</t>
+  </si>
+  <si>
+    <t>A Tabela 1 não é citada no texto!</t>
+  </si>
+  <si>
+    <t>Na hipótese H0 o que são resultados insuficientes?</t>
+  </si>
+  <si>
+    <t>Corrigir expressões estranhas/Typos: 
   - notçias
   - por etapas por um conjunto de etapas
   - De acordo com a Figura. 3. É possível notar
   - e, além facilitar a</t>
   </si>
   <si>
-    <t xml:space="preserve">Falmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Seção de Introdução está muito extensa, sem foco e não apresenta elementos fundamentais de uma introdução de artigo. Nela, não fica claro o problema exato que o artigo pretende resolver, como pretende resolver, como os resultados foram avaliados e quais são os resultados gerais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Além disto, no último parágrafo deveria haver um sumário das seções posteriores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No geral, além de uma melhor estruturação do texto, o artigo precisa de uma revisão gramatical. Há muitas frases longas, uso incorreto de vírgulas e "emendas" ou "quebras" de frases que comprometem a compreensão do texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em andamento</t>
+    <t>Falmer</t>
+  </si>
+  <si>
+    <t>Além disto, no último parágrafo deveria haver um sumário das seções posteriores.</t>
+  </si>
+  <si>
+    <t>No geral, além de uma melhor estruturação do texto, o artigo precisa de uma revisão gramatical. Há muitas frases longas, uso incorreto de vírgulas e "emendas" ou "quebras" de frases que comprometem a compreensão do texto.</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
   </si>
   <si>
     <t xml:space="preserve">As conclusões da Seção 5 também são vagas, e não discutem potenciais ameaças a validade dos resultados. Por exemplo, quão dependentes os resultados são do dataset utilizado e das técnicas de limpeza, por exemplo? O texto diz que o artigo apresentou resultados contrários ao apresentado por Dias (2019) em virtude da limpeza dos dados, mas como isto está representado nos resultados? Quais métricas e cenários foram avaliados para que tal conclusão seja obtida? </t>
   </si>
   <si>
-    <t xml:space="preserve">O artigo necessita de uma revisão de português por algumas frases parecerem faltar a completude do raciocínio como por exemplo as seguintes frases:  
+    <t>O artigo necessita de uma revisão de português por algumas frases parecerem faltar a completude do raciocínio como por exemplo as seguintes frases:  
 Exemplo1: De acordo com Zhou et al (2020) e outras obras utilizadas como base para o projeto de Monteiro et al (2018) e Shu et al (2017), existem alguns atributos que fazem a ponte entre a exatidão dos modelos de detecção de notícias falsas, tais como: número de palavras, número de pontos, número de parágrafos etc.
 Exemplo 2:  Métodos probabilísticos bayesianos assumem que a probabilidade de um evento A, representado por uma variável alvo, como por exemplo, a classe falsa, dado um evento B, representado por valores de atributos de entrada [Freire e Goldschimidt 2019], por exemplo: as representações numéricas da notícia
 Exemplo 3: - repetição da palavra etapas -  Os dados passaram por etapas por um conjunto de etapas de pré-processamento (ver Figura 2), vetorização, treinamento nos algoritmos de classificação SVM e Naive Bayes (ver Figura 3) e avaliação final que incluíram o cálculo do F1 Score, curva ROC, acurácia e Área Sob a Curva (AUC).</t>
   </si>
   <si>
-    <t xml:space="preserve">Falta de complementos necessariamente baseadas notícias reais  faltando EM
+    <t>Falta de complementos necessariamente baseadas notícias reais  faltando EM
 Na seção Trabalhos Correlatos não são apresentados de forma abrangente trabalhos que tenham buscado responder a mesma pergunta de pesquisa ou até semelhante, com outras técnicas ou maneiras diferentes. Há uma mistura de comparação com alguns trabalhos , mas também com uma parte conceitual. Isso faz com que esta seção esteja mais semelhante a um Referencial teórico do que Trabalhos correlatos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quanto aos dados utilizados para validação é importante que os autores expliquem se de fato TODAS as notícias veiculadas pelos sites contraponto.jor.br e conversaafiada.com.br/politica são falsas ou se isso é apenas senso comum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na seção Análise dos Dados, algums discussões são difíceis de acompanhar. Por exemplo  Durante a análise feita na base de treinamento, verificou-se que mais de 75% das notícias falsas têm menos de 218 caracteres de palavras, então notícias falsas tendem a ser mais curtas se comparadas com as não falsas e mais de 75% das notícias não falsas tem número de palavras menor que 1369 caracteres.- fica confuso entender, da forma como está escrito uma mensagem com 100 caracteres se encaixa tanto na explicação de notícias falsas quanto não falsas, pois 100 é menor que 218 e menor que 1369.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retirei o parágrafo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figura 6: aumentar a figura para possibilitar a visualização dos dados dos eixos e legendas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do 5.o parágrafo da Seção 2 em diante poderia ser colocado em uma Seção de "Processamento de Linguagem Natural". Esse conteúdo não está relacionado aos "Trabalhos Correlados" e sim aos conceitos de PLN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Seção 3.1, "foram mapeados dois sites que compartilham notícias falsas e dois sites considerados confiáveis...de acordo com a justificativa...". Qual é essa justificativa? Não ficou claro no texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Resumo:
+    <t>Quanto aos dados utilizados para validação é importante que os autores expliquem se de fato TODAS as notícias veiculadas pelos sites contraponto.jor.br e conversaafiada.com.br/politica são falsas ou se isso é apenas senso comum.</t>
+  </si>
+  <si>
+    <t>Na seção Análise dos Dados, algums discussões são difíceis de acompanhar. Por exemplo  Durante a análise feita na base de treinamento, verificou-se que mais de 75% das notícias falsas têm menos de 218 caracteres de palavras, então notícias falsas tendem a ser mais curtas se comparadas com as não falsas e mais de 75% das notícias não falsas tem número de palavras menor que 1369 caracteres.- fica confuso entender, da forma como está escrito uma mensagem com 100 caracteres se encaixa tanto na explicação de notícias falsas quanto não falsas, pois 100 é menor que 218 e menor que 1369.</t>
+  </si>
+  <si>
+    <t>Retirei o parágrafo</t>
+  </si>
+  <si>
+    <t>Figura 6: aumentar a figura para possibilitar a visualização dos dados dos eixos e legendas.</t>
+  </si>
+  <si>
+    <t>Do 5.o parágrafo da Seção 2 em diante poderia ser colocado em uma Seção de "Processamento de Linguagem Natural". Esse conteúdo não está relacionado aos "Trabalhos Correlados" e sim aos conceitos de PLN.</t>
+  </si>
+  <si>
+    <t>Na Seção 3.1, "foram mapeados dois sites que compartilham notícias falsas e dois sites considerados confiáveis...de acordo com a justificativa...". Qual é essa justificativa? Não ficou claro no texto.</t>
+  </si>
+  <si>
+    <t>No Resumo:
 - a versão em inglês diz que o propósito do trabalho é analisar se as notícias políticas são verdadeiras ou não e difere do resumo em português.
 - já no resumo talvez fosse necessário explicar melhor o que é "melhor" resultado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Na Introdução
+    <t>Na Introdução
 - não é feita, claramente, uma menção ao propósito principal do trabalho que é a comparação dos dois algoritmos.
 - a Introdução não dá o suporte que o restante do texto precisa para chegar às conclusões esperadas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nos Trabalhos Correlatos
+    <t>Nos Trabalhos Correlatos
 - essa seção não trata de Trabalhos Correlatos, mas, de fundamentação da proposta.
 - há uma discussão sobre a representação das notícias falsas, mas, não se explica o porquê dessa discussão ser necessária.
 - há termos não explicados, tais como stop words
 - o parágrafo que inicia com a frase "O Naive Bayes é um classificador probabilístico que assume a independência entre os atributos dos dados [Harrison 2019]." não possui sentido.</t>
   </si>
   <si>
-    <t xml:space="preserve">Na Metodologia
+    <t>Na Metodologia
 - não há claramente explicado o que é um resultado "melhor". Essa explicação já deveria ter sido apresentada nesse ponto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Na Metodologia- como se chegou ao processo para o pré-processamento das notícias. Esse caminho é muito importante para que se compreenda o que dos trabalhos correlatos temos de adaptação/melhoria/inovação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar a etapa de teste e validação no diagrama da Figura 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir melhor o que seria um desempenho ruim. (procurar referências)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acurárica abaixo de 50% (modelo não conseguiu acertar nem 50% dos dados),
+    <t>Na Metodologia- como se chegou ao processo para o pré-processamento das notícias. Esse caminho é muito importante para que se compreenda o que dos trabalhos correlatos temos de adaptação/melhoria/inovação.</t>
+  </si>
+  <si>
+    <t>Adicionar a etapa de teste e validação no diagrama da Figura 3</t>
+  </si>
+  <si>
+    <t>Definir melhor o que seria um desempenho ruim. (procurar referências)</t>
+  </si>
+  <si>
+    <t>acurárica abaixo de 50% (modelo não conseguiu acertar nem 50% dos dados),
 Erro I e II muito altos
 Precisão, recall e F1-Score abaixo de 50%. AUC e curva RoC menor que 50%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Seção de Introdução está muito extensa, sem foco e não apresenta elementos fundamentais de uma introdução de artigo. Nela, não fica claro o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>problema exato que o artigo pretende resolver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>como pretende resolver, como os resultados foram avaliados e quais são os resultados gerais</t>
+    </r>
+  </si>
+  <si>
+    <t>Parcialmente resolvido</t>
+  </si>
+  <si>
+    <t>Foi seguida a sugestão da linha 38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -240,22 +287,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -263,12 +295,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,106 +318,379 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.34"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -399,7 +710,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -410,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -421,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -432,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -443,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -454,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -465,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -476,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -487,7 +798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="105.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -498,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -509,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -520,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -531,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -542,7 +853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -553,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -564,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -575,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -586,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -597,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -608,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -619,7 +930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -630,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -641,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -651,11 +962,11 @@
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -666,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -677,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -688,171 +999,201 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="259.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="0" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>